--- a/input_data/input_data_ress.xlsx
+++ b/input_data/input_data_ress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33431F06-E354-4009-BD7B-6355F4EF5FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87832D2B-4959-4F95-9355-F06AD53EB86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="495" yWindow="1260" windowWidth="13500" windowHeight="12675" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
     <sheet name="price" sheetId="4" r:id="rId12"/>
     <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId15"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
     <sheet name="risk" sheetId="17" r:id="rId17"/>
     <sheet name="scenarios" sheetId="9" r:id="rId18"/>
@@ -369,13 +369,13 @@
     <t>elc_res2</t>
   </si>
   <si>
-    <t>up_down</t>
-  </si>
-  <si>
     <t>slow</t>
   </si>
   <si>
     <t>reserve_product</t>
+  </si>
+  <si>
+    <t>res_down</t>
   </si>
 </sst>
 </file>
@@ -4047,178 +4047,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -4235,14 +4235,14 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4267,7 +4267,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4281,7 +4281,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4295,7 +4295,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4309,7 +4309,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4323,7 +4323,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4337,7 +4337,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4351,7 +4351,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4365,7 +4365,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4379,7 +4379,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4393,7 +4393,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4401,7 +4401,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4409,7 +4409,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4417,7 +4417,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4425,7 +4425,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4433,7 +4433,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4441,7 +4441,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4449,7 +4449,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4457,7 +4457,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4465,7 +4465,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4473,7 +4473,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4481,7 +4481,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4489,7 +4489,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4497,7 +4497,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4520,82 +4520,82 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4614,12 +4614,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4642,7 +4642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4654,7 +4654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4666,7 +4666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4678,7 +4678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4690,7 +4690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4702,7 +4702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4714,7 +4714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4726,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4738,7 +4738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4750,85 +4750,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4844,22 +4844,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -4978,10 +4978,10 @@
         <v>102</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5"/>
     </row>
   </sheetData>
@@ -5008,6 +5008,58 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660E6835-7C41-4EA7-9A00-745BA61545EA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5015,14 +5067,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5069,7 +5121,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5093,7 +5145,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5117,7 +5169,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5141,7 +5193,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5165,7 +5217,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5189,7 +5241,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5213,7 +5265,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5237,7 +5289,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5261,7 +5313,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5290,58 +5342,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660E6835-7C41-4EA7-9A00-745BA61545EA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5353,14 +5353,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5399,7 +5399,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5421,7 +5421,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5443,7 +5443,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5465,7 +5465,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5487,7 +5487,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5509,7 +5509,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5531,7 +5531,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5553,7 +5553,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5575,7 +5575,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5597,50 +5597,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
   </sheetData>
@@ -5657,12 +5657,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -5699,9 +5699,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5738,162 +5738,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5906,26 +5906,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -6152,6 +6152,19 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6166,155 +6179,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6334,155 +6347,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6501,14 +6514,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6522,7 +6535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6536,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6555,15 +6568,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6586,7 +6599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6610,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6634,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6658,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6682,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6706,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6730,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6754,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6778,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6802,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6826,85 +6839,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6917,28 +6930,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6988,7 +7001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7038,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -7138,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7155,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -7187,6 +7200,39 @@
       <c r="P5" s="6">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7201,9 +7247,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7214,7 +7260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7225,7 +7271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7236,7 +7282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7247,7 +7293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7258,7 +7304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7269,7 +7315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7293,9 +7339,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7346,26 +7392,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7391,7 +7437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -7417,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -7443,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -7469,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -7495,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -7521,7 +7567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -7547,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -7573,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7598,6 +7644,12 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7613,155 +7665,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7780,9 +7832,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7790,7 +7842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -7798,9 +7850,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7819,15 +7871,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7838,7 +7890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7852,7 +7904,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7864,7 +7916,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7876,7 +7928,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7888,7 +7940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7900,7 +7952,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7912,7 +7964,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7924,7 +7976,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7936,7 +7988,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7948,7 +8000,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7960,85 +8012,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
